--- a/exportDrawing/listBillet.xlsx
+++ b/exportDrawing/listBillet.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12090"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TheoryPur" sheetId="1" r:id="rId1"/>
+    <sheet name="RealPur" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -349,7 +350,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -360,7 +361,9 @@
     <col min="4" max="4" width="7.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -381,7 +384,7 @@
         <v>171735</v>
       </c>
       <c r="F1" s="1">
-        <f>E1*$H$14*10^-9</f>
+        <f t="shared" ref="F1:F13" si="0">E1*$H$14*10^-9</f>
         <v>0.46368450000000005</v>
       </c>
     </row>
@@ -399,11 +402,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <f t="shared" ref="E2:E13" si="0">A2*B2*C2*D2</f>
+        <f t="shared" ref="E2:E6" si="1">A2*B2*C2*D2</f>
         <v>1005480</v>
       </c>
       <c r="F2" s="1">
-        <f>E2*$H$14*10^-9</f>
+        <f t="shared" si="0"/>
         <v>2.7147960000000002</v>
       </c>
     </row>
@@ -421,11 +424,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1005480</v>
       </c>
       <c r="F3" s="1">
-        <f>E3*$H$14*10^-9</f>
+        <f t="shared" si="0"/>
         <v>2.7147960000000002</v>
       </c>
     </row>
@@ -443,11 +446,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>744000</v>
       </c>
       <c r="F4" s="1">
-        <f>E4*$H$14*10^-9</f>
+        <f t="shared" si="0"/>
         <v>2.0087999999999999</v>
       </c>
     </row>
@@ -465,11 +468,11 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>744000</v>
       </c>
       <c r="F5" s="1">
-        <f>E5*$H$14*10^-9</f>
+        <f t="shared" si="0"/>
         <v>2.0087999999999999</v>
       </c>
     </row>
@@ -487,11 +490,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2521500</v>
       </c>
       <c r="F6" s="1">
-        <f>E6*$H$14*10^-9</f>
+        <f t="shared" si="0"/>
         <v>6.8080500000000006</v>
       </c>
     </row>
@@ -513,7 +516,7 @@
         <v>1042800</v>
       </c>
       <c r="F7" s="1">
-        <f>E7*$H$14*10^-9</f>
+        <f t="shared" si="0"/>
         <v>2.8155600000000001</v>
       </c>
     </row>
@@ -535,7 +538,7 @@
         <v>1261500</v>
       </c>
       <c r="F8" s="1">
-        <f>E8*$H$14*10^-9</f>
+        <f t="shared" si="0"/>
         <v>3.40605</v>
       </c>
     </row>
@@ -557,7 +560,7 @@
         <v>1261500</v>
       </c>
       <c r="F9" s="1">
-        <f>E9*$H$14*10^-9</f>
+        <f t="shared" si="0"/>
         <v>3.40605</v>
       </c>
     </row>
@@ -579,7 +582,7 @@
         <v>779308.75</v>
       </c>
       <c r="F10" s="1">
-        <f>E10*$H$14*10^-9</f>
+        <f t="shared" si="0"/>
         <v>2.1041336250000002</v>
       </c>
     </row>
@@ -601,7 +604,7 @@
         <v>779308.75</v>
       </c>
       <c r="F11" s="1">
-        <f>E11*$H$14*10^-9</f>
+        <f t="shared" si="0"/>
         <v>2.1041336250000002</v>
       </c>
     </row>
@@ -623,7 +626,7 @@
         <v>668694.4</v>
       </c>
       <c r="F12" s="1">
-        <f>E12*$H$14*10^-9</f>
+        <f t="shared" si="0"/>
         <v>1.80547488</v>
       </c>
     </row>
@@ -645,7 +648,7 @@
         <v>668694.4</v>
       </c>
       <c r="F13" s="1">
-        <f>E13*$H$14*10^-9</f>
+        <f t="shared" si="0"/>
         <v>1.80547488</v>
       </c>
     </row>
@@ -663,6 +666,10 @@
         <f>SUM(F1:F13)</f>
         <v>34.165803510000003</v>
       </c>
+      <c r="H16" s="1">
+        <f>F16*90000</f>
+        <v>3074922.3159000003</v>
+      </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="1">
@@ -674,4 +681,199 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>115</v>
+      </c>
+      <c r="B1">
+        <v>115</v>
+      </c>
+      <c r="C1">
+        <v>16</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <f>A1*B1*C1*D1*E1*$A$12*10^-9</f>
+        <v>0.57132000000000005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>315</v>
+      </c>
+      <c r="B2">
+        <v>165</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G8" si="0">A2*B2*C2*D2*E2*$A$12*10^-9</f>
+        <v>4.49064</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>415</v>
+      </c>
+      <c r="B3">
+        <v>415</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>7.4401200000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>295</v>
+      </c>
+      <c r="B4">
+        <v>295</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>7.5189600000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>165</v>
+      </c>
+      <c r="B5">
+        <v>440</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>3.13632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>285</v>
+      </c>
+      <c r="B6">
+        <v>120</v>
+      </c>
+      <c r="C6">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>6.4638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>3.14</v>
+      </c>
+      <c r="D7">
+        <v>130</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>5.5106999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>3.14</v>
+      </c>
+      <c r="D8">
+        <v>130</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>4.4636670000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2700</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G1:G8)</f>
+        <v>39.595527000000004</v>
+      </c>
+      <c r="I12">
+        <v>41.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>